--- a/Excel_Challenge_539 - Total Amount Per Item.xlsx
+++ b/Excel_Challenge_539 - Total Amount Per Item.xlsx
@@ -8,15 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mbieg\Dropbox\GitHub\PowerQueryBitsAndPieces\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57D78E7B-782B-4F98-92F4-1FEDF1325E59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCA0F04D-2E67-44CC-B87B-2FF65B605F22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Original" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Alt1" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Alt1'!$A$2:$F$11</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Original!$A$2:$F$11</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
@@ -39,8 +41,30 @@
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="19">
   <si>
     <t>Table1</t>
   </si>
@@ -636,8 +660,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q9" sqref="Q9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="U18" sqref="U18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1200,4 +1224,367 @@
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5172D25E-7F91-4593-A4D7-C5057E20B1D6}">
+  <dimension ref="A1:J23"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="R8" sqref="R8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="6.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="4.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="4.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="4.88671875" customWidth="1"/>
+    <col min="8" max="8" width="5.5546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.5546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
+    </row>
+    <row r="2" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3">
+        <v>17.3</v>
+      </c>
+      <c r="D3">
+        <v>20.399999999999999</v>
+      </c>
+      <c r="E3">
+        <v>20.2</v>
+      </c>
+      <c r="F3">
+        <v>20.3</v>
+      </c>
+      <c r="H3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I3">
+        <v>10</v>
+      </c>
+      <c r="J3">
+        <v>163.30000000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4">
+        <v>50</v>
+      </c>
+      <c r="D4">
+        <v>29.6</v>
+      </c>
+      <c r="E4">
+        <v>41.9</v>
+      </c>
+      <c r="F4">
+        <v>50.7</v>
+      </c>
+      <c r="H4" t="s">
+        <v>10</v>
+      </c>
+      <c r="I4">
+        <v>40</v>
+      </c>
+      <c r="J4">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5">
+        <v>15.3</v>
+      </c>
+      <c r="D5">
+        <v>13.5</v>
+      </c>
+      <c r="E5">
+        <v>11.7</v>
+      </c>
+      <c r="F5">
+        <v>19.7</v>
+      </c>
+      <c r="H5" t="s">
+        <v>10</v>
+      </c>
+      <c r="I5">
+        <v>85</v>
+      </c>
+      <c r="J5">
+        <v>1513</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6">
+        <v>44.3</v>
+      </c>
+      <c r="D6">
+        <v>60.4</v>
+      </c>
+      <c r="E6">
+        <v>69.3</v>
+      </c>
+      <c r="F6">
+        <v>70.5</v>
+      </c>
+      <c r="H6" t="s">
+        <v>14</v>
+      </c>
+      <c r="I6">
+        <v>15</v>
+      </c>
+      <c r="J6">
+        <v>1039.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7">
+        <v>39.5</v>
+      </c>
+      <c r="D7">
+        <v>28.4</v>
+      </c>
+      <c r="E7">
+        <v>25.6</v>
+      </c>
+      <c r="F7">
+        <v>44.2</v>
+      </c>
+      <c r="H7" t="s">
+        <v>14</v>
+      </c>
+      <c r="I7">
+        <v>48</v>
+      </c>
+      <c r="J7">
+        <v>3384</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8">
+        <v>95.2</v>
+      </c>
+      <c r="D8">
+        <v>82.7</v>
+      </c>
+      <c r="E8">
+        <v>95.9</v>
+      </c>
+      <c r="F8">
+        <v>86.7</v>
+      </c>
+      <c r="H8" t="s">
+        <v>12</v>
+      </c>
+      <c r="I8">
+        <v>60</v>
+      </c>
+      <c r="J8">
+        <v>2740</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9">
+        <v>14.8</v>
+      </c>
+      <c r="D9">
+        <v>15.1</v>
+      </c>
+      <c r="E9">
+        <v>16.2</v>
+      </c>
+      <c r="F9">
+        <v>13.4</v>
+      </c>
+      <c r="H9" t="s">
+        <v>15</v>
+      </c>
+      <c r="I9">
+        <v>3</v>
+      </c>
+      <c r="J9">
+        <v>263.7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10">
+        <v>80.599999999999994</v>
+      </c>
+      <c r="D10">
+        <v>93.4</v>
+      </c>
+      <c r="E10">
+        <v>81.099999999999994</v>
+      </c>
+      <c r="F10">
+        <v>97.6</v>
+      </c>
+      <c r="H10" t="s">
+        <v>15</v>
+      </c>
+      <c r="I10">
+        <v>8</v>
+      </c>
+      <c r="J10">
+        <v>704.4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11">
+        <v>43.3</v>
+      </c>
+      <c r="D11">
+        <v>40</v>
+      </c>
+      <c r="E11">
+        <v>50.5</v>
+      </c>
+      <c r="F11">
+        <v>42.1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B16" cm="1">
+        <f t="array" ref="B16:B23">_xlfn.MAP(I3:I10,_xlfn.LAMBDA(_xlpm.x,_xlpm.x*AVERAGEIF(A3:A11,_xlfn.SINGLE(+H10:_xlpm.x),_xlfn.XLOOKUP(_xlpm.x,--_xlfn.TEXTBEFORE(C2:F2,{"-";"+"}),C3:F11,,-1))))</f>
+        <v>163.33333333333331</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B17">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B18">
+        <v>1513</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B19">
+        <v>1039.5</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B20">
+        <v>3384</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B21">
+        <v>2740</v>
+      </c>
+    </row>
+    <row r="22" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B22">
+        <v>263.70000000000005</v>
+      </c>
+    </row>
+    <row r="23" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B23">
+        <v>704.40000000000009</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Excel_Challenge_539 - Total Amount Per Item.xlsx
+++ b/Excel_Challenge_539 - Total Amount Per Item.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mbieg\Dropbox\GitHub\PowerQueryBitsAndPieces\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCA0F04D-2E67-44CC-B87B-2FF65B605F22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9B118A5-23EA-4993-B8B3-4F5B54F14A0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -656,11 +656,38 @@
 </a:theme>
 </file>
 
+<file path=xl/webextensions/taskpanes.xml><?xml version="1.0" encoding="utf-8"?>
+<wetp:taskpanes xmlns:wetp="http://schemas.microsoft.com/office/webextensions/taskpanes/2010/11">
+  <wetp:taskpane dockstate="right" visibility="0" width="975" row="8">
+    <wetp:webextensionref xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+  </wetp:taskpane>
+</wetp:taskpanes>
+</file>
+
+<file path=xl/webextensions/webextension1.xml><?xml version="1.0" encoding="utf-8"?>
+<we:webextension xmlns:we="http://schemas.microsoft.com/office/webextensions/webextension/2010/11" id="{4BE8A820-9B23-4B63-9A09-BA007018D337}">
+  <we:reference id="wa200003696" version="1.3.0.0" store="en-US" storeType="OMEX"/>
+  <we:alternateReferences>
+    <we:reference id="wa200003696" version="1.3.0.0" store="" storeType="OMEX"/>
+  </we:alternateReferences>
+  <we:properties/>
+  <we:bindings/>
+  <we:snapshot xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
+  <we:extLst>
+    <a:ext xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" uri="{7C84B067-C214-45C3-A712-C9D94CD141B2}">
+      <we:customFunctionIdList>
+        <we:customFunctionIds>_xldudf_LABS_GENERATIVEAI</we:customFunctionIds>
+      </we:customFunctionIdList>
+    </a:ext>
+  </we:extLst>
+</we:webextension>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="U18" sqref="U18"/>
     </sheetView>
   </sheetViews>
@@ -988,7 +1015,7 @@
   <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:F10"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1230,8 +1257,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5172D25E-7F91-4593-A4D7-C5057E20B1D6}">
   <dimension ref="A1:J23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R8" sqref="R8"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1543,45 +1570,120 @@
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
     </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I15" cm="1">
+        <f t="array" ref="I15:I23">_xlfn.XLOOKUP(H6,{0,6,11,20},C3:F11,,-1)</f>
+        <v>20.3</v>
+      </c>
+    </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B16" cm="1">
-        <f t="array" ref="B16:B23">_xlfn.MAP(I3:I10,_xlfn.LAMBDA(_xlpm.x,_xlpm.x*AVERAGEIF(A3:A11,_xlfn.SINGLE(+H10:_xlpm.x),_xlfn.XLOOKUP(_xlpm.x,--_xlfn.TEXTBEFORE(C2:F2,{"-";"+"}),C3:F11,,-1))))</f>
+        <f t="array" ref="B16:B23">_xlfn.MAP(
+    I3:I10,
+    _xlfn.LAMBDA(_xlpm.x,
+        _xlpm.x *
+            AVERAGEIF(
+                A3:A11,
+                _xlfn.SINGLE(+H10:_xlpm.x),
+                _xlfn.XLOOKUP(_xlpm.x, --_xlfn.TEXTBEFORE(C2:F2, {"-";"+"}), C3:F11, , -1)
+            )
+    )
+)</f>
         <v>163.33333333333331</v>
       </c>
-    </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="E16" cm="1">
+        <f t="array" ref="E16:E23">_xlfn.MAP(
+    I3:I10,
+    _xlfn.LAMBDA(_xlpm.x,
+        1 *
+            AVERAGEIF(
+                A3:A11,
+                _xlfn.SINGLE(+H10:_xlpm.x),
+                _xlfn.XLOOKUP(_xlpm.x, --_xlfn.TEXTBEFORE(C2:F2, {"-";"+"}), C3:F11, , -1)
+            )
+    )
+)</f>
+        <v>16.333333333333332</v>
+      </c>
+      <c r="I16">
+        <v>50.7</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B17">
         <v>712</v>
       </c>
-    </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="E17">
+        <v>17.8</v>
+      </c>
+      <c r="I17">
+        <v>19.7</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B18">
         <v>1513</v>
       </c>
-    </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="E18">
+        <v>17.8</v>
+      </c>
+      <c r="I18">
+        <v>70.5</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B19">
         <v>1039.5</v>
       </c>
-    </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="E19">
+        <v>69.3</v>
+      </c>
+      <c r="I19">
+        <v>44.2</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B20">
         <v>3384</v>
       </c>
-    </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="E20">
+        <v>70.5</v>
+      </c>
+      <c r="I20">
+        <v>86.7</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B21">
         <v>2740</v>
       </c>
-    </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="E21">
+        <v>45.666666666666664</v>
+      </c>
+      <c r="I21">
+        <v>13.4</v>
+      </c>
+    </row>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B22">
         <v>263.70000000000005</v>
       </c>
-    </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="E22">
+        <v>87.9</v>
+      </c>
+      <c r="I22">
+        <v>97.6</v>
+      </c>
+    </row>
+    <row r="23" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B23">
         <v>704.40000000000009</v>
+      </c>
+      <c r="E23">
+        <v>88.050000000000011</v>
+      </c>
+      <c r="I23">
+        <v>42.1</v>
       </c>
     </row>
   </sheetData>

--- a/Excel_Challenge_539 - Total Amount Per Item.xlsx
+++ b/Excel_Challenge_539 - Total Amount Per Item.xlsx
@@ -8,17 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mbieg\Dropbox\GitHub\PowerQueryBitsAndPieces\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9B118A5-23EA-4993-B8B3-4F5B54F14A0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56288020-FB59-45D9-A748-59574281737F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Original" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Alt1" sheetId="3" r:id="rId3"/>
+    <sheet name="Alt2" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Alt1'!$A$2:$F$11</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Alt2'!$A$2:$F$11</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Original!$A$2:$F$11</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
@@ -64,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="20">
   <si>
     <t>Table1</t>
   </si>
@@ -121,6 +123,9 @@
   </si>
   <si>
     <t>Average Price</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/feed/update/urn:li:activity:7238758032132714496/</t>
   </si>
 </sst>
 </file>
@@ -674,6 +679,9 @@
   <we:bindings/>
   <we:snapshot xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
   <we:extLst>
+    <a:ext xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" uri="{D87F86FE-615C-45B5-9D79-34F1136793EB}">
+      <we:containsCustomFunctions/>
+    </a:ext>
     <a:ext xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" uri="{7C84B067-C214-45C3-A712-C9D94CD141B2}">
       <we:customFunctionIdList>
         <we:customFunctionIds>_xldudf_LABS_GENERATIVEAI</we:customFunctionIds>
@@ -685,10 +693,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J13"/>
+  <dimension ref="A1:Q13"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="U18" sqref="U18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="W9" sqref="W9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -704,7 +712,7 @@
     <col min="10" max="10" width="7.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -713,8 +721,11 @@
       </c>
       <c r="I1" s="4"/>
       <c r="J1" s="4"/>
-    </row>
-    <row r="2" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="Q1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>2</v>
       </c>
@@ -743,7 +754,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -772,7 +783,7 @@
         <v>163.30000000000001</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>12</v>
       </c>
@@ -801,7 +812,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -830,7 +841,7 @@
         <v>1513</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>14</v>
       </c>
@@ -859,7 +870,7 @@
         <v>1039.5</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -888,7 +899,7 @@
         <v>3384</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>15</v>
       </c>
@@ -917,7 +928,7 @@
         <v>2740</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -946,7 +957,7 @@
         <v>263.7</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>15</v>
       </c>
@@ -975,7 +986,7 @@
         <v>704.4</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -995,7 +1006,7 @@
         <v>42.1</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
@@ -1257,7 +1268,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5172D25E-7F91-4593-A4D7-C5057E20B1D6}">
   <dimension ref="A1:J23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
@@ -1689,4 +1700,401 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6104F966-54BF-4B32-A5B8-8F579E2CB54D}">
+  <dimension ref="A1:Q21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="6.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="4.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="4.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="4.88671875" customWidth="1"/>
+    <col min="8" max="8" width="5.5546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.5546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
+      <c r="Q1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3">
+        <v>17.3</v>
+      </c>
+      <c r="D3">
+        <v>20.399999999999999</v>
+      </c>
+      <c r="E3">
+        <v>20.2</v>
+      </c>
+      <c r="F3">
+        <v>20.3</v>
+      </c>
+      <c r="H3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I3">
+        <v>10</v>
+      </c>
+      <c r="J3">
+        <v>163.30000000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4">
+        <v>50</v>
+      </c>
+      <c r="D4">
+        <v>29.6</v>
+      </c>
+      <c r="E4">
+        <v>41.9</v>
+      </c>
+      <c r="F4">
+        <v>50.7</v>
+      </c>
+      <c r="H4" t="s">
+        <v>10</v>
+      </c>
+      <c r="I4">
+        <v>40</v>
+      </c>
+      <c r="J4">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5">
+        <v>15.3</v>
+      </c>
+      <c r="D5">
+        <v>13.5</v>
+      </c>
+      <c r="E5">
+        <v>11.7</v>
+      </c>
+      <c r="F5">
+        <v>19.7</v>
+      </c>
+      <c r="H5" t="s">
+        <v>10</v>
+      </c>
+      <c r="I5">
+        <v>85</v>
+      </c>
+      <c r="J5">
+        <v>1513</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6">
+        <v>44.3</v>
+      </c>
+      <c r="D6">
+        <v>60.4</v>
+      </c>
+      <c r="E6">
+        <v>69.3</v>
+      </c>
+      <c r="F6">
+        <v>70.5</v>
+      </c>
+      <c r="H6" t="s">
+        <v>14</v>
+      </c>
+      <c r="I6">
+        <v>15</v>
+      </c>
+      <c r="J6">
+        <v>1039.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7">
+        <v>39.5</v>
+      </c>
+      <c r="D7">
+        <v>28.4</v>
+      </c>
+      <c r="E7">
+        <v>25.6</v>
+      </c>
+      <c r="F7">
+        <v>44.2</v>
+      </c>
+      <c r="H7" t="s">
+        <v>14</v>
+      </c>
+      <c r="I7">
+        <v>48</v>
+      </c>
+      <c r="J7">
+        <v>3384</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8">
+        <v>95.2</v>
+      </c>
+      <c r="D8">
+        <v>82.7</v>
+      </c>
+      <c r="E8">
+        <v>95.9</v>
+      </c>
+      <c r="F8">
+        <v>86.7</v>
+      </c>
+      <c r="H8" t="s">
+        <v>12</v>
+      </c>
+      <c r="I8">
+        <v>60</v>
+      </c>
+      <c r="J8">
+        <v>2740</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9">
+        <v>14.8</v>
+      </c>
+      <c r="D9">
+        <v>15.1</v>
+      </c>
+      <c r="E9">
+        <v>16.2</v>
+      </c>
+      <c r="F9">
+        <v>13.4</v>
+      </c>
+      <c r="H9" t="s">
+        <v>15</v>
+      </c>
+      <c r="I9">
+        <v>3</v>
+      </c>
+      <c r="J9">
+        <v>263.7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10">
+        <v>80.599999999999994</v>
+      </c>
+      <c r="D10">
+        <v>93.4</v>
+      </c>
+      <c r="E10">
+        <v>81.099999999999994</v>
+      </c>
+      <c r="F10">
+        <v>97.6</v>
+      </c>
+      <c r="H10" t="s">
+        <v>15</v>
+      </c>
+      <c r="I10">
+        <v>8</v>
+      </c>
+      <c r="J10">
+        <v>704.4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11">
+        <v>43.3</v>
+      </c>
+      <c r="D11">
+        <v>40</v>
+      </c>
+      <c r="E11">
+        <v>50.5</v>
+      </c>
+      <c r="F11">
+        <v>42.1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="B14" cm="1">
+        <f t="array" ref="B14:B21">_xlfn.LET(
+_xlpm.r, _xlfn.XMATCH(I3:I10,--_xlfn.IFNA(_xlfn.TEXTBEFORE(C2:F2,"-"),21),-1),
+_xlfn.MAP(H3:H10,_xlpm.r,I3:I10, _xlfn.LAMBDA(_xlpm.x,_xlpm.y,_xlpm.z, AVERAGE(_xlfn._xlws.FILTER(_xlfn.CHOOSECOLS(C3:F11,_xlpm.y),A3:A11=_xlpm.x))*_xlpm.z))
+)</f>
+        <v>163.33333333333331</v>
+      </c>
+      <c r="F14" cm="1">
+        <f t="array" ref="F14:F21">_xlfn.LET(
+_xlpm.r, _xlfn.XMATCH(I3:I10,--_xlfn.IFNA(_xlfn.TEXTBEFORE(C2:F2,"-"),21),-1),
+_xlpm.r
+)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="B15">
+        <v>712</v>
+      </c>
+      <c r="F15">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="B16">
+        <v>1513</v>
+      </c>
+      <c r="F16">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B17">
+        <v>1039.5</v>
+      </c>
+      <c r="F17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B18">
+        <v>3384</v>
+      </c>
+      <c r="F18">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B19">
+        <v>2740</v>
+      </c>
+      <c r="F19">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B20">
+        <v>263.70000000000005</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B21">
+        <v>704.40000000000009</v>
+      </c>
+      <c r="F21">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Excel_Challenge_539 - Total Amount Per Item.xlsx
+++ b/Excel_Challenge_539 - Total Amount Per Item.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mbieg\Dropbox\GitHub\PowerQueryBitsAndPieces\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56288020-FB59-45D9-A748-59574281737F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02412E36-935A-4144-9F1F-48A06C4CE38E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1707,7 +1707,7 @@
   <dimension ref="A1:Q21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="O8" sqref="O8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
